--- a/test/ExcelSugar.Npoi.Test/Test3.xlsx
+++ b/test/ExcelSugar.Npoi.Test/Test3.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="1" r:id="rId3"/>
+    <sheet name="娴嬭瘯" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
-    <t xml:space="preserve">姓名</t>
+    <t xml:space="preserve">濮撳悕</t>
   </si>
   <si>
-    <t xml:space="preserve">描述</t>
+    <t xml:space="preserve">鎻忚堪</t>
   </si>
   <si>
     <t xml:space="preserve">222</t>
   </si>
   <si>
-    <t xml:space="preserve">111</t>
+    <t xml:space="preserve">\u4F60\u597D\u554A</t>
   </si>
   <si>
     <t xml:space="preserve">444</t>
@@ -32,10 +32,10 @@
     <t xml:space="preserve">333</t>
   </si>
   <si>
-    <t xml:space="preserve">测试头</t>
+    <t xml:space="preserve">娴嬭瘯澶</t>
   </si>
   <si>
-    <t xml:space="preserve">测试头2</t>
+    <t xml:space="preserve">娴嬭瘯澶?</t>
   </si>
   <si>
     <t xml:space="preserve">123</t>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/test/ExcelSugar.Npoi.Test/Test3.xlsx
+++ b/test/ExcelSugar.Npoi.Test/Test3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">濮撳悕</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">222</t>
   </si>
   <si>
-    <t xml:space="preserve">\u4F60\u597D\u554A</t>
+    <t xml:space="preserve">\u4F60\u597D\u5440</t>
   </si>
   <si>
     <t xml:space="preserve">444</t>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">456</t>
   </si>
   <si>
-    <t xml:space="preserve">2223</t>
+    <t xml:space="preserve">33331</t>
   </si>
   <si>
-    <t xml:space="preserve">33331</t>
+    <t xml:space="preserve">2223</t>
   </si>
 </sst>
 </file>
@@ -111,12 +111,6 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -131,12 +125,6 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -146,15 +134,9 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
